--- a/AllData/RawData/Surveys1.xlsx
+++ b/AllData/RawData/Surveys1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\jobskill\skill-job-matching\AllData\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6035D2D0-BB67-4F9C-8926-E395DBE4EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFCEBAF-15D1-4BBA-8192-F0A903FB7C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t xml:space="preserve">Anong </t>
   </si>
   <si>
-    <t>anongmarion@gmail.com</t>
-  </si>
-  <si>
     <t>Woman</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t xml:space="preserve">She is a good communicator and expresses her self well. She is aware of the need to further her skills in financial analysis to compete internationally. Her goal is to travel and work internationally so as to gain knowledge from her peers from other countries. she is aware of the need to improve your information technology skills such as in excel, R programming and other softwares use in the financial analysis field.  Her current education doesn't cover these IT skills.  She is willing to pursue her dream and learn more but financial contraints is a major set back. she rely on her parents for sponsorship. her plan isto parttake in community activities to empower youths at the secondary school level to choose the right career path. </t>
+  </si>
+  <si>
+    <t>nambuielts@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -415,34 +415,34 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="30"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="First/Given names" dataDxfId="29"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Last/Family names" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Email Address" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Gender" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Highest Level of education" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Continent of Residence" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Introduce Yourself: Share a brief introduction about yourself. " dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="What are your passions and interests? (Choose one or more)_x000a_" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="What skills and strengths do you believe you possess? (Choose one or more)" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="What type of work environment do you envision yourself thriving in? (Choose one)" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="How important is salary and financial stability to you when considering a career? (Choose one)" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Do you seek stability and long-term growth or are you interested in taking risks for higher rewards? (Choose one)" dataDxfId="18"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="How do you want your career to align with your personal values and goals? (Choose one)" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Have you considered the lifestyle associated with different career choices? (Choose one)" dataDxfId="16"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Which industries or sectors appeal to you? (Choose one or more)" dataDxfId="15"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Are you open to further education or training to pursue a specific career path? (Choose one)" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="How important are technology and technical skills in your ideal career? (Choose one)" dataDxfId="13"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="How do you handle stress and pressure? (Choose one)" dataDxfId="12"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="What are your long-term career goals? (Choose one or more)" dataDxfId="11"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Do you have a specific career path in mind, or are you still exploring your options? (Choose one)" dataDxfId="10"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="If you have a specific career path in mind, could you briefly describe what it is and what has motivated your choice? (Only answer this question if you selected the first option in the question above)" dataDxfId="9"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Is industry growth important to you? Are you willing to take exams or continue studying for it?" dataDxfId="8"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="What do you consider a fulfilled career and life?" dataDxfId="7"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Can you connect your past education to your future ambitions? Do you see the link between what you studied or previous work experience with what your future ambitions are? If yes explain. " dataDxfId="6"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="How do you differentiate yourself from others with similar interests in your field? For example, why would an employer choose you over other candidates with similar qualifications. " dataDxfId="5"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="What's your proudest achievement? It could be academical, professional or any social contribution to a community for example. " dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Do you have a passion that you think could become a potential career? Your passion hear could be something you enjoy doing which is not in line with what you studied at school. " dataDxfId="3"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Is anything holding you back from pursuing your desired career? Elaborate your response to capture all factors blocking you to pursue your career. " dataDxfId="2"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Do you have a role model in your desired field of life? If yes, provide some background information about your role model and why he/she is your role model. " dataDxfId="1"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Coach Feedback (Do not respond to this question)" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Email Address" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Gender" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Highest Level of education" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Continent of Residence" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Introduce Yourself: Share a brief introduction about yourself. " dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="What are your passions and interests? (Choose one or more)_x000a_" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="What skills and strengths do you believe you possess? (Choose one or more)" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="What type of work environment do you envision yourself thriving in? (Choose one)" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="How important is salary and financial stability to you when considering a career? (Choose one)" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Do you seek stability and long-term growth or are you interested in taking risks for higher rewards? (Choose one)" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="How do you want your career to align with your personal values and goals? (Choose one)" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Have you considered the lifestyle associated with different career choices? (Choose one)" dataDxfId="17"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Which industries or sectors appeal to you? (Choose one or more)" dataDxfId="16"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Are you open to further education or training to pursue a specific career path? (Choose one)" dataDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="How important are technology and technical skills in your ideal career? (Choose one)" dataDxfId="14"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="How do you handle stress and pressure? (Choose one)" dataDxfId="13"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="What are your long-term career goals? (Choose one or more)" dataDxfId="12"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Do you have a specific career path in mind, or are you still exploring your options? (Choose one)" dataDxfId="11"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="If you have a specific career path in mind, could you briefly describe what it is and what has motivated your choice? (Only answer this question if you selected the first option in the question above)" dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Is industry growth important to you? Are you willing to take exams or continue studying for it?" dataDxfId="9"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="What do you consider a fulfilled career and life?" dataDxfId="8"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Can you connect your past education to your future ambitions? Do you see the link between what you studied or previous work experience with what your future ambitions are? If yes explain. " dataDxfId="7"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="How do you differentiate yourself from others with similar interests in your field? For example, why would an employer choose you over other candidates with similar qualifications. " dataDxfId="6"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="What's your proudest achievement? It could be academical, professional or any social contribution to a community for example. " dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Do you have a passion that you think could become a potential career? Your passion hear could be something you enjoy doing which is not in line with what you studied at school. " dataDxfId="4"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Is anything holding you back from pursuing your desired career? Elaborate your response to capture all factors blocking you to pursue your career. " dataDxfId="3"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Do you have a role model in your desired field of life? If yes, provide some background information about your role model and why he/she is your role model. " dataDxfId="2"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Coach Feedback (Do not respond to this question)" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,85 +920,85 @@
         <v>38</v>
       </c>
       <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>48</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>49</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>50</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>52</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>53</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>60</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>63</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>64</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1011,15 +1011,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8e825b35-f672-4970-9371-a8c632ee8dcc">
@@ -1028,6 +1019,15 @@
     <TaxCatchAll xmlns="bd1879cd-8614-4443-8a96-207341b25768" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1226,20 +1226,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D6BEA9E-117B-42B2-A2AE-63D36F9B5216}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99BFBC16-9B29-4114-B1BE-FA71B7956D7E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8e825b35-f672-4970-9371-a8c632ee8dcc"/>
     <ds:schemaRef ds:uri="bd1879cd-8614-4443-8a96-207341b25768"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D6BEA9E-117B-42B2-A2AE-63D36F9B5216}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
